--- a/TOPSIS.xlsx
+++ b/TOPSIS.xlsx
@@ -19,23 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Исходные данные</t>
   </si>
   <si>
-    <t>об. 5</t>
-  </si>
-  <si>
-    <t>об. 6</t>
-  </si>
-  <si>
     <t>Критерий:</t>
   </si>
   <si>
-    <t>Первостепенность:</t>
-  </si>
-  <si>
     <t>К1</t>
   </si>
   <si>
@@ -46,9 +37,6 @@
   </si>
   <si>
     <t>К4</t>
-  </si>
-  <si>
-    <t>К5</t>
   </si>
   <si>
     <t>Вес критерия</t>
@@ -141,6 +129,21 @@
   <si>
     <t>Iceni Infix</t>
   </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Функционал</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>Интерфейс</t>
+  </si>
+  <si>
+    <t>инверт</t>
+  </si>
 </sst>
 </file>
 
@@ -164,9 +167,10 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -182,7 +186,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,21 +248,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,222 +548,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>120</v>
-      </c>
-      <c r="E4" s="2">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>13000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="11">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>900</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>174</v>
-      </c>
-      <c r="E6" s="2">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11">
+        <v>16000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>102</v>
-      </c>
-      <c r="E7" s="2">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>92</v>
-      </c>
-      <c r="E8" s="2">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <v>132</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>800</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
+      <c r="A13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>0.4</v>
@@ -762,13 +725,11 @@
       <c r="E13" s="2">
         <v>0.1</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
+      <c r="A14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>0.4</v>
@@ -782,13 +743,11 @@
       <c r="E14" s="2">
         <v>0.1</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
+      <c r="A15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>0.4</v>
@@ -802,13 +761,10 @@
       <c r="E15" s="2">
         <v>0.1</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
+      <c r="A16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>0.4</v>
@@ -822,506 +778,387 @@
       <c r="E16" s="2">
         <v>0.1</v>
       </c>
-      <c r="F16" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="2">
         <f>B4/((B4^2)+(B5^2)+(B6^2)+(B7^2)+(B8^2)+(B9^2))^0.5</f>
-        <v>0.29185420270888951</v>
+        <v>0.56736651461358012</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:F22" si="0">C4/((C4^2)+(C5^2)+(C6^2)+(C7^2)+(C8^2)+(C9^2))^0.5</f>
-        <v>0.46013135864519394</v>
+        <v>0.54392829322042113</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.37197546530743575</v>
+        <v>0.69189840602166375</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0.41599666848573102</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <f>B5/((B4^2)+(B5^2)+(B6^2)+(B7^2)+(B8^2)+(B9^2))^0.5</f>
-        <v>0.43778130406333421</v>
+        <v>0.34914862437758781</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23:F23" si="1">C5/((C4^2)+(C5^2)+(C6^2)+(C7^2)+(C8^2)+(C9^2))^0.5</f>
-        <v>0.29448406953292411</v>
+        <v>0.16317848796612633</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>0.47116892272275196</v>
+        <v>0.41513904361299825</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0.41599666848573102</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B24" s="2">
         <f>B6/((B4^2)+(B5^2)+(B6^2)+(B7^2)+(B8^2)+(B9^2))^0.5</f>
-        <v>0.37941046352155633</v>
+        <v>0.69829724875517563</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:F24" si="2">C6/((C4^2)+(C5^2)+(C6^2)+(C7^2)+(C8^2)+(C9^2))^0.5</f>
-        <v>0.38651034126196293</v>
+        <v>0.81589243983063175</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>0.53936442469578183</v>
+        <v>0.4612656040144425</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>0.40814767474071723</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <f>B7/((B4^2)+(B5^2)+(B6^2)+(B7^2)+(B8^2)+(B9^2))^0.5</f>
-        <v>0.4669667243342232</v>
+        <v>0.26186146828319085</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ref="C25:F25" si="3">C7/((C4^2)+(C5^2)+(C6^2)+(C7^2)+(C8^2)+(C9^2))^0.5</f>
-        <v>0.38651034126196293</v>
+        <v>0.10878565864408422</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.31617914551132043</v>
+        <v>0.369012483211554</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>0.41599666848573102</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>20</v>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B31" s="2">
         <f>B22*B13</f>
-        <v>0.11674168108355581</v>
+        <v>0.22694660584543205</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ref="C31:F31" si="4">C22*C13</f>
-        <v>0.13803940759355818</v>
+        <v>0.16317848796612633</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="4"/>
-        <v>3.7197546530743579E-2</v>
+        <v>6.9189840602166375E-2</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="4"/>
-        <v>4.1599666848573108E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>21</v>
+        <v>6.1538461538461542E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B32" s="2">
         <f>B23*B14</f>
-        <v>0.17511252162533369</v>
+        <v>0.13965944975103514</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ref="C32:F32" si="5">C23*C14</f>
-        <v>8.8345220859877227E-2</v>
+        <v>4.8953546389837899E-2</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="5"/>
-        <v>4.7116892272275196E-2</v>
+        <v>4.1513904361299828E-2</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="5"/>
-        <v>4.1599666848573108E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="5"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ref="B33:F36" si="6">B24*B15</f>
-        <v>0.15176418540862255</v>
+        <v>0.27931889950207028</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
-        <v>0.11595310237858887</v>
+        <v>0.24476773194918952</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="6"/>
-        <v>5.3936442469578183E-2</v>
+        <v>4.612656040144425E-2</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="6"/>
-        <v>4.0814767474071728E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="6"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>23</v>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="6"/>
-        <v>0.18678668973368928</v>
+        <v>0.10474458731327635</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
-        <v>0.11595310237858887</v>
+        <v>3.2635697593225266E-2</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="6"/>
-        <v>3.1617914551132047E-2</v>
+        <v>3.6901248321155398E-2</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="6"/>
-        <v>4.1599666848573108E-2</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2">
-        <f>MAX(B31:B34)</f>
-        <v>0.18678668973368928</v>
+        <f>MIN(B31:B34)</f>
+        <v>0.10474458731327635</v>
       </c>
       <c r="C40" s="2">
         <f>MAX(C31:C34)</f>
-        <v>0.13803940759355818</v>
+        <v>0.24476773194918952</v>
       </c>
       <c r="D40" s="2">
         <f>MIN(D31:D34)</f>
-        <v>3.1617914551132047E-2</v>
+        <v>3.6901248321155398E-2</v>
       </c>
       <c r="E40" s="2">
-        <f>MIN(E31:E34)</f>
-        <v>4.0814767474071728E-2</v>
-      </c>
-      <c r="F40" s="2">
-        <f>MIN(F31:F34)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <f>MAX(E31:E34)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <f>MIN(B31:B34)</f>
-        <v>0.11674168108355581</v>
+        <f>MAX(B31:B34)</f>
+        <v>0.27931889950207028</v>
       </c>
       <c r="C41" s="2">
         <f>MIN(C31:C34)</f>
-        <v>8.8345220859877227E-2</v>
+        <v>3.2635697593225266E-2</v>
       </c>
       <c r="D41" s="2">
         <f>MAX(D31:D34)</f>
-        <v>5.3936442469578183E-2</v>
+        <v>6.9189840602166375E-2</v>
       </c>
       <c r="E41" s="2">
-        <f>MAX(E31:E34)</f>
-        <v>4.1599666848573108E-2</v>
-      </c>
-      <c r="F41" s="2">
-        <f>MAX(F31:F34)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <f>MIN(E31:E34)</f>
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="B45" s="2">
         <f>((B31-B40)^2+(C31-C40)^2+(D31-D40)^2+(E31-E40)^2+(F31-F40)^2)^0.5</f>
-        <v>7.1374376332499517E-2</v>
+        <v>0.15122624656151143</v>
       </c>
       <c r="C45" s="2">
         <f>((B31-B41)^2+(C31-C41)^2+(D31-D41)^2+(E31-E41)^2+(F31-F41)^2)^0.5</f>
-        <v>6.4466680016680586E-2</v>
+        <v>0.15061104058210342</v>
       </c>
       <c r="D45" s="2">
         <f>C45/(B45+C45)</f>
-        <v>0.4745743426123592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>21</v>
+        <v>0.49898089797779804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B46" s="2">
         <f>((B32-B40)^2+(C32-C40)^2+(D32-D40)^2+(E32-E40)^2+(F32-F40)^2)^0.5</f>
-        <v>5.8920563248942917E-2</v>
+        <v>0.20825585641125485</v>
       </c>
       <c r="C46" s="2">
         <f>((B32-B41)^2+(C32-C41)^2+(D32-D41)^2+(E32-E41)^2+(F32-F41)^2)^0.5</f>
-        <v>6.386439767544351E-2</v>
+        <v>0.14351363398141889</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ref="D46:D50" si="7">C46/(B46+C46)</f>
-        <v>0.52013208453739346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
+        <v>0.40797635355248485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B47" s="2">
         <f>((B33-B40)^2+(C33-C40)^2+(D33-D40)^2+(E33-E40)^2+(F33-F40)^2)^0.5</f>
-        <v>4.703719140950656E-2</v>
+        <v>0.17481789627829644</v>
       </c>
       <c r="C47" s="2">
         <f>((B33-B41)^2+(C33-C41)^2+(D33-D41)^2+(E33-E41)^2+(F33-F41)^2)^0.5</f>
-        <v>6.7002887983867027E-2</v>
-      </c>
-      <c r="D47" s="2">
+        <v>0.22433192885075687</v>
+      </c>
+      <c r="D47" s="12">
         <f t="shared" si="7"/>
-        <v>0.58753806854820811</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>23</v>
+        <v>0.56202436961666158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B48" s="2">
         <f>((B34-B40)^2+(C34-C40)^2+(D34-D40)^2+(E34-E40)^2+(F34-F40)^2)^0.5</f>
-        <v>5.4666451733004162E-2</v>
+        <v>0.22314322622092747</v>
       </c>
       <c r="C48" s="2">
         <f>((B34-B41)^2+(C34-C41)^2+(D34-D41)^2+(E34-E41)^2+(F34-F41)^2)^0.5</f>
-        <v>7.8527797926561976E-2</v>
+        <v>0.17753518994182491</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="7"/>
-        <v>0.58957348479587335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+        <v>0.44308648227687797</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
